--- a/vote_app/mediafiles/statistic_files/54c55d4358c1b87b457046a9ca63f53a89da3900.xlsx
+++ b/vote_app/mediafiles/statistic_files/54c55d4358c1b87b457046a9ca63f53a89da3900.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="64">
   <si>
     <t>Как часто Вы посещаете объекты питания</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>329780</t>
+  </si>
+  <si>
+    <t>210979</t>
+  </si>
+  <si>
+    <t>233373</t>
+  </si>
+  <si>
+    <t>877053</t>
   </si>
   <si>
     <t>2-3 раза в неделю</t>
@@ -169,6 +178,36 @@
   </si>
   <si>
     <t>Люблю покушать</t>
+  </si>
+  <si>
+    <t>песочные пирожки с начинками сверху сырые, а снизу сильно поджаренные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">девушка в буфете администрации супер! </t>
+  </si>
+  <si>
+    <t>Всегда черствый хлеб</t>
+  </si>
+  <si>
+    <t>Долго собирают комплекс</t>
+  </si>
+  <si>
+    <t>Дорого</t>
+  </si>
+  <si>
+    <t>Индивидуальный план питания</t>
+  </si>
+  <si>
+    <t>Не пользуюсь.</t>
+  </si>
+  <si>
+    <t>Устраивает.</t>
+  </si>
+  <si>
+    <t>Цены завышены. Даже по сравнению с отделами готовых блюд в супермаркетах, значительно выше.</t>
+  </si>
+  <si>
+    <t>Имею.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,28 +605,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -595,28 +634,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -624,28 +663,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -653,28 +692,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -682,28 +721,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -711,28 +750,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -740,28 +779,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -769,28 +808,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -798,28 +837,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -827,28 +866,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -856,28 +895,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -885,28 +924,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -914,28 +953,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -943,28 +982,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -972,28 +1011,115 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1129,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1014,10 +1140,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1028,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1039,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1050,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1061,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1336,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1515,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1526,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1585,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1596,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1671,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1722,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1733,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1752,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1763,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1774,7 +1900,7 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1785,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1940,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1959,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>23</v>
       </c>
@@ -1967,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>23</v>
       </c>
@@ -1975,12 +2101,237 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
